--- a/APPR/说明/APPR.xlsx
+++ b/APPR/说明/APPR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python项目\散件\RNP Approach\ARINC\APPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AE3FF6-1171-412F-BBB1-58995EB887A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9AB35C-429E-4A0F-B3BB-4580386E930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7116" yWindow="756" windowWidth="14676" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11232" yWindow="3624" windowWidth="14676" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,29 @@
   </si>
   <si>
     <t>T10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\steampower\steamapps\common\X-Plane 11\Custom Data</t>
+  </si>
+  <si>
+    <t>ZUCK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -469,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -485,35 +508,35 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1">
-        <v>3100</v>
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
@@ -524,42 +547,30 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -567,50 +578,90 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{6C2627B8-E8BB-4E9F-9DC6-0EF3F086E3D3}"/>
+    <hyperlink ref="C6" r:id="rId1" xr:uid="{6C2627B8-E8BB-4E9F-9DC6-0EF3F086E3D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/APPR/说明/APPR.xlsx
+++ b/APPR/说明/APPR.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python项目\散件\RNP Approach\ARINC\APPR\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9AB35C-429E-4A0F-B3BB-4580386E930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3820C32-3F5D-4A3A-BB9C-72CCD5098391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11232" yWindow="3624" windowWidth="14676" windowHeight="11004" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -664,5 +659,6 @@
     <hyperlink ref="C6" r:id="rId1" xr:uid="{6C2627B8-E8BB-4E9F-9DC6-0EF3F086E3D3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>